--- a/3_Result/1_Brava/1_Centerline/2_Siphon information/6_Siphon_B1B2_MeanDist.xlsx
+++ b/3_Result/1_Brava/1_Centerline/2_Siphon information/6_Siphon_B1B2_MeanDist.xlsx
@@ -489,7 +489,7 @@
         <v>0.003395352855942169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002291447672948828</v>
+        <v>0.002291447672948976</v>
       </c>
       <c r="D3" t="n">
         <v>0.005277450031717645</v>
@@ -508,7 +508,7 @@
         <v>0.004332301683660366</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003480887497485485</v>
+        <v>0.00348088749748543</v>
       </c>
       <c r="D4" t="n">
         <v>0.007973187501051138</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003910884621135757</v>
+        <v>0.003910884621135646</v>
       </c>
       <c r="C9" t="n">
         <v>0.1183669430150419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006355681628653631</v>
+        <v>0.006355681628653187</v>
       </c>
       <c r="E9" t="n">
         <v>0.3102822620963059</v>
@@ -622,7 +622,7 @@
         <v>0.03340844819318952</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005365499761574887</v>
+        <v>0.005365499761575013</v>
       </c>
       <c r="D10" t="n">
         <v>0.06374335997055702</v>
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.003723128223447025</v>
+        <v>0.003723128223446981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003661100439508791</v>
+        <v>0.003661100439508846</v>
       </c>
       <c r="D12" t="n">
         <v>0.006589123417839682</v>
@@ -714,13 +714,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.480297366166875e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01067670207975624</v>
+        <v>0.01067670207975618</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="E15" t="n">
         <v>0.01765499506658141</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005581999605953773</v>
+        <v>0.005581999605953698</v>
       </c>
       <c r="C16" t="n">
         <v>0.003836109005850574</v>
@@ -774,7 +774,7 @@
         <v>0.007021228929932017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002329554672687362</v>
+        <v>0.002329554672687251</v>
       </c>
       <c r="D18" t="n">
         <v>0.0139668583018735</v>
@@ -793,13 +793,13 @@
         <v>0.01881362885580616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0388155041617344</v>
+        <v>0.03881550416173446</v>
       </c>
       <c r="D19" t="n">
         <v>0.03353370258827515</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09031539706337455</v>
+        <v>0.09031539706337544</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>0.01207991777638313</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004781697074974833</v>
+        <v>0.004781697074974778</v>
       </c>
       <c r="D20" t="n">
         <v>0.01867370194268569</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00885346083312033</v>
+        <v>0.008853460833119886</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.05553154511224465</v>
+        <v>0.05553154511224463</v>
       </c>
       <c r="C21" t="n">
         <v>0.00360353967398878</v>
@@ -850,7 +850,7 @@
         <v>0.03395585999671027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004685673411255438</v>
+        <v>0.004685673411255513</v>
       </c>
       <c r="D22" t="n">
         <v>0.05061083860289362</v>
@@ -869,7 +869,7 @@
         <v>0.001830661567405967</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002603683173967358</v>
+        <v>0.002603683173967456</v>
       </c>
       <c r="D23" t="n">
         <v>0.004505161853157968</v>
@@ -894,7 +894,7 @@
         <v>0.009259843497366305</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4257345481976245</v>
+        <v>0.4257345481976227</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>0.004617440165051967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01637808393122882</v>
+        <v>0.01637808393122873</v>
       </c>
       <c r="D25" t="n">
         <v>0.008417588143325716</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0516246752504621</v>
+        <v>0.05162467525046299</v>
       </c>
     </row>
     <row r="26">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01428630444390036</v>
+        <v>0.01428630444390046</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01991716818952262</v>
+        <v>0.0199171681895226</v>
       </c>
       <c r="D28" t="n">
         <v>0.02544753433930547</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02387067070961253</v>
+        <v>0.02387067070961244</v>
       </c>
       <c r="C29" t="n">
         <v>0.0646638922481268</v>
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02224040710673124</v>
+        <v>0.0222404071067312</v>
       </c>
       <c r="C30" t="n">
         <v>0.005832201047063871</v>
@@ -1059,7 +1059,7 @@
         <v>0.003911341392544343</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003686614762335561</v>
+        <v>0.003686614762335672</v>
       </c>
       <c r="D33" t="n">
         <v>0.006238856158512718</v>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.009220603340539566</v>
+        <v>0.009220603340539535</v>
       </c>
       <c r="C35" t="n">
         <v>0.0107999002126099</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.03139212209472918</v>
+        <v>0.03139212209472912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02966992371347594</v>
+        <v>0.02966992371347597</v>
       </c>
       <c r="D36" t="n">
         <v>0.08379236619613684</v>
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.08197259438921795</v>
+        <v>0.08197259438921792</v>
       </c>
       <c r="C38" t="n">
         <v>0.06358462950886321</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1289945964574375</v>
+        <v>0.1289945964574379</v>
       </c>
       <c r="E38" t="n">
         <v>0.1962299936338665</v>
@@ -1211,13 +1211,13 @@
         <v>0.001469633107988699</v>
       </c>
       <c r="C41" t="n">
-        <v>0.002036002211607535</v>
+        <v>0.002036002211607446</v>
       </c>
       <c r="D41" t="n">
         <v>0.002277547057587315</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00552692293649848</v>
+        <v>0.005526922936499368</v>
       </c>
     </row>
     <row r="42">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.03643584222801417</v>
+        <v>0.03643584222801419</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04885657081025192</v>
+        <v>0.04885657081025177</v>
       </c>
       <c r="D42" t="n">
         <v>0.07920327807334004</v>
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.07001051983400955</v>
+        <v>0.07001051983400958</v>
       </c>
       <c r="C43" t="n">
         <v>0.01408658061823039</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1148475908962017</v>
+        <v>0.1148475908962014</v>
       </c>
       <c r="E43" t="n">
         <v>0.04119473643717297</v>
@@ -1268,13 +1268,13 @@
         <v>0.01401684359101507</v>
       </c>
       <c r="C44" t="n">
-        <v>0.009387489745124752</v>
+        <v>0.009387489745124732</v>
       </c>
       <c r="D44" t="n">
         <v>0.02271671218389892</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0261730407417371</v>
+        <v>0.02617304074173754</v>
       </c>
     </row>
     <row r="45">
@@ -1306,7 +1306,7 @@
         <v>0.02817215652329616</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08837939900118748</v>
+        <v>0.08837939900118749</v>
       </c>
       <c r="D46" t="n">
         <v>0.04472455060966363</v>
@@ -1325,13 +1325,13 @@
         <v>0.1036444080376984</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1250003040764941</v>
+        <v>0.1250003040764938</v>
       </c>
       <c r="D47" t="n">
         <v>0.2462431168957038</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3294658207258578</v>
+        <v>0.3294658207258596</v>
       </c>
     </row>
     <row r="48">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.08062290964634575</v>
+        <v>0.0806229096463458</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03412938171495235</v>
+        <v>0.03412938171495247</v>
       </c>
       <c r="D48" t="n">
         <v>0.2034466202127323</v>
       </c>
       <c r="E48" t="n">
-        <v>0.08860844805688917</v>
+        <v>0.08860844805688828</v>
       </c>
     </row>
     <row r="49">
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0006863494069545562</v>
+        <v>0.0006863494069545006</v>
       </c>
       <c r="C49" t="n">
-        <v>0.003148766477563458</v>
+        <v>0.003148766477563347</v>
       </c>
       <c r="D49" t="n">
         <v>0.001034100136115157</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01397746206254813</v>
+        <v>0.01397746206254817</v>
       </c>
       <c r="C50" t="n">
         <v>0.00625785934821943</v>
@@ -1420,13 +1420,13 @@
         <v>0.004294944133042921</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07649059019118905</v>
+        <v>0.0764905901911892</v>
       </c>
       <c r="D52" t="n">
         <v>0.007496899114753486</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2304323546104801</v>
+        <v>0.2304323546104809</v>
       </c>
     </row>
     <row r="53">
@@ -1439,7 +1439,7 @@
         <v>0.0746865030335048</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001700535546111048</v>
+        <v>0.001700535546110937</v>
       </c>
       <c r="D53" t="n">
         <v>0.1964460181285275</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.00311652830813347</v>
+        <v>0.003116528308133415</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03143694325834007</v>
+        <v>0.03143694325834002</v>
       </c>
       <c r="D55" t="n">
         <v>0.004991746212849923</v>
@@ -1496,7 +1496,7 @@
         <v>0.00101303341140051</v>
       </c>
       <c r="C56" t="n">
-        <v>0.00275364897858806</v>
+        <v>0.002753648978587912</v>
       </c>
       <c r="D56" t="n">
         <v>0.002005921113314768</v>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.005023663271132651</v>
+        <v>0.00502366327113262</v>
       </c>
       <c r="C58" t="n">
         <v>0.07185676121392848</v>
@@ -1591,7 +1591,7 @@
         <v>0.003615727924869601</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04577111526635178</v>
+        <v>0.04577111526635166</v>
       </c>
       <c r="D61" t="n">
         <v>0.008892058847671303</v>
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02838797746184047</v>
+        <v>0.02838797746184041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01970994395732095</v>
+        <v>0.01970994395732082</v>
       </c>
       <c r="D62" t="n">
-        <v>0.06084544785887158</v>
+        <v>0.06084544785887136</v>
       </c>
       <c r="E62" t="n">
-        <v>0.04530682377822348</v>
+        <v>0.04530682377822259</v>
       </c>
     </row>
     <row r="63">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.002918046965841281</v>
+        <v>0.002918046965841237</v>
       </c>
       <c r="C63" t="n">
         <v>0.001220168895197678</v>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.06518256099789405</v>
+        <v>0.0651825609978941</v>
       </c>
       <c r="C65" t="n">
         <v>0.001223460806454635</v>
@@ -1686,7 +1686,7 @@
         <v>0.02571053949582969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001575057300055447</v>
+        <v>0.001575057300055644</v>
       </c>
       <c r="D66" t="n">
         <v>0.04989826625109561</v>
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001770642075079321</v>
+        <v>0.001770642075079265</v>
       </c>
       <c r="C73" t="n">
         <v>0.01142046559949867</v>
@@ -1857,7 +1857,7 @@
         <v>0.06286710157987178</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04040855317611713</v>
+        <v>0.04040855317611707</v>
       </c>
       <c r="D75" t="n">
         <v>0.1268673165155438</v>
@@ -1873,13 +1873,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.04177761050447158</v>
+        <v>0.04177761050447162</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01228671976363344</v>
+        <v>0.01228671976363348</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08649799666904712</v>
+        <v>0.08649799666904801</v>
       </c>
       <c r="E76" t="n">
         <v>0.02441052439091784</v>
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.09210826123976637</v>
+        <v>0.09210826123976634</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0374140030106874</v>
+        <v>0.03741400301068758</v>
       </c>
       <c r="D78" t="n">
         <v>0.238463648849943</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1018860811075228</v>
+        <v>0.1018860811075246</v>
       </c>
     </row>
     <row r="79">
